--- a/Overall LASSO Performance Metrics.xlsx
+++ b/Overall LASSO Performance Metrics.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER/1st Benchmark/Performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="14_{E8FF2459-5B4E-4333-A403-900B9D9D77DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB488429-F567-4728-AE6D-2616F2E414C7}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB2B01D-2D1E-4E2C-9592-907C7ABB074C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="BM1's Performance" sheetId="2" r:id="rId1"/>
+    <sheet name="BM1's Performance" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Corrections" sheetId="3" r:id="rId2"/>
     <sheet name="Lars" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="glmnet" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
+  <si>
+    <t>Folder Name</t>
+  </si>
   <si>
     <t>Dataset Range</t>
   </si>
@@ -47,6 +51,36 @@
     <t>Covered? (Yes/No)</t>
   </si>
   <si>
+    <t>Number of Datasets</t>
+  </si>
+  <si>
+    <t>True Positive Rate</t>
+  </si>
+  <si>
+    <t>True Negative Rate</t>
+  </si>
+  <si>
+    <t>False Positive Rate</t>
+  </si>
+  <si>
+    <t>Underspecified Models Selected</t>
+  </si>
+  <si>
+    <t>Correctly Specified Models Selected</t>
+  </si>
+  <si>
+    <t>Overspecified Models Selected</t>
+  </si>
+  <si>
+    <t>Models with at least one Omitted Variable</t>
+  </si>
+  <si>
+    <t>Models with at least one Extra Variable</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
     <t>0-3-1-1 to 0-3-10-500</t>
   </si>
   <si>
@@ -56,67 +90,64 @@
     <t>0-4-1-1 to 0-4-10-500</t>
   </si>
   <si>
-    <t>Underspecified Models Selected</t>
-  </si>
-  <si>
-    <t>Correctly Specified Models Selected</t>
-  </si>
-  <si>
-    <t>Overspecified Models Selected</t>
-  </si>
-  <si>
-    <t>Models with at least one Omitted Variable</t>
-  </si>
-  <si>
-    <t>Models with at least one Extra Variable</t>
-  </si>
-  <si>
-    <t>Number of Datasets</t>
-  </si>
-  <si>
-    <t>True Positive Rate</t>
-  </si>
-  <si>
-    <t>True Negative Rate</t>
-  </si>
-  <si>
-    <t>False Positive Rate</t>
+    <t>2nd 10k</t>
   </si>
   <si>
     <t>0-5-1-1 to 0-6-10-500</t>
   </si>
   <si>
+    <t>3rd 10k</t>
+  </si>
+  <si>
+    <t>0-7-1-1 to 0-8-10-500</t>
+  </si>
+  <si>
+    <t>4th 10k</t>
+  </si>
+  <si>
     <t>0-9-1-1 to 0-10-10-500</t>
   </si>
   <si>
+    <t>0-11-1-1 to 0-11-10-500</t>
+  </si>
+  <si>
+    <t>0-12-1-1 to 0-12-10-500</t>
+  </si>
+  <si>
+    <t>6th 10k</t>
+  </si>
+  <si>
+    <t>0-13-1-1 to 0-14-10-500</t>
+  </si>
+  <si>
+    <t>0-15-1-1 to 0-15-10-500</t>
+  </si>
+  <si>
+    <t>8th 10k</t>
+  </si>
+  <si>
+    <t>0.25-1-1-1 to 0.25-2-10-500</t>
+  </si>
+  <si>
+    <t>9th 10k</t>
+  </si>
+  <si>
+    <t>0.25-3-1-1 to 0.25-4-10-500</t>
+  </si>
+  <si>
+    <t>0.25-5-1-1 to 0.25-5-10-500</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>0-11-1-1 to 0-11-10-500</t>
-  </si>
-  <si>
-    <t>0-12-1-1 to 0-12-10-500</t>
-  </si>
-  <si>
-    <t>Folder Name</t>
-  </si>
-  <si>
-    <t>0-15-1-1 to 0-15-10-500</t>
-  </si>
-  <si>
-    <t>3rd 10k</t>
-  </si>
-  <si>
-    <t>4th 10k</t>
-  </si>
-  <si>
-    <t>2nd 10k</t>
-  </si>
-  <si>
-    <t>8th 10k</t>
-  </si>
-  <si>
-    <t>9th 10k</t>
+    <t>0.25-6-1-1 to 0.25-6-10-500</t>
+  </si>
+  <si>
+    <t>0.25-7-1-1 to 0.25-8-10-500</t>
+  </si>
+  <si>
+    <t>0.25-9-1-1 to 0.25-9-10-500</t>
   </si>
   <si>
     <t>10th 10k</t>
@@ -125,150 +156,120 @@
     <t>0.25-10-1-1 to 0.25-11-10-500</t>
   </si>
   <si>
-    <t>0-13-1-1 to 0-14-10-500</t>
-  </si>
-  <si>
-    <t>0.25-1-1-1 to 0.25-2-10-500</t>
-  </si>
-  <si>
-    <t>0.25-3-1-1 to 0.25-4-10-500</t>
-  </si>
-  <si>
-    <t>0.25-5-1-1 to 0.25-5-10-500</t>
-  </si>
-  <si>
-    <t>0.25-6-1-1 to 0.25-6-10-500</t>
-  </si>
-  <si>
-    <t>6th 10k</t>
+    <t>11th 10k</t>
   </si>
   <si>
     <t>0.25-12-1-1 to 0.25-13-10-500</t>
   </si>
   <si>
-    <t>11th 10k</t>
+    <t>0.25-14-1-1 to 0.25-14-10-500</t>
+  </si>
+  <si>
+    <t>0.25-15-1-1 to 0.25-15-10-500</t>
+  </si>
+  <si>
+    <t>0.5-3-1-1 to 0.5-4-10-500</t>
   </si>
   <si>
     <t>0.5-5-1-1 to 0.5-6-10-500</t>
   </si>
   <si>
+    <t>0.5-7-1-1 to 0.5-7-10-500</t>
+  </si>
+  <si>
+    <t>0.5-8-1-1 to 0.5-8-10-500</t>
+  </si>
+  <si>
+    <t>0.5-9-1-1 to 0.5-9-10-500</t>
+  </si>
+  <si>
+    <t>0.5-10-1-1 to 0.5-11-10-500</t>
+  </si>
+  <si>
+    <t>16th 10k</t>
+  </si>
+  <si>
     <t>0.5-12-1-1 to 0.5-13-10-500</t>
   </si>
   <si>
-    <t>0.5-7-1-1 to 0.5-7-10-500</t>
-  </si>
-  <si>
-    <t>0.5-8-1-1 to 0.5-8-10-500</t>
-  </si>
-  <si>
-    <t>0.5-9-1-1 to 0.5-9-10-500</t>
-  </si>
-  <si>
-    <t>0.5-10-1-1 to 0.5-11-10-500</t>
-  </si>
-  <si>
-    <t>16th 10k</t>
+    <t>0.5-14-1-1 to 0.5-15-10-500</t>
   </si>
   <si>
     <t>17th 10k</t>
   </si>
   <si>
+    <t>0.75-3-1-1 to 0.75-4-10-500</t>
+  </si>
+  <si>
+    <t>0.75-5-1-1 to 0.75-6-10-500</t>
+  </si>
+  <si>
     <t>19th 10k</t>
   </si>
   <si>
+    <t>0.75-7-1-1 to 0.75-8-10-500</t>
+  </si>
+  <si>
     <t>20th 10k</t>
   </si>
   <si>
+    <t>0.75-9-1-1 to 0.75-10-10-500</t>
+  </si>
+  <si>
+    <t>0.75-11-1-1 to 0.75-11-10-500</t>
+  </si>
+  <si>
+    <t>0.75-12-1-1 to 0.75-12-10-500</t>
+  </si>
+  <si>
+    <t>0.75-13-1-1 to 0.75-13-10-500</t>
+  </si>
+  <si>
+    <t>0.75-14-1-1 to 0.75-14-10-500</t>
+  </si>
+  <si>
     <t>23rd &amp; Final 5k</t>
   </si>
   <si>
-    <t>0.75-14-1-1 to 0.75-14-10-500</t>
-  </si>
-  <si>
-    <t>0.75-13-1-1 to 0.75-13-10-500</t>
-  </si>
-  <si>
-    <t>0.5-3-1-1 to 0.5-4-10-500</t>
-  </si>
-  <si>
-    <t>0.25-14-1-1 to 0.25-14-10-500</t>
-  </si>
-  <si>
-    <t>0.25-15-1-1 to 0.25-15-10-500</t>
-  </si>
-  <si>
-    <t>0.75-3-1-1 to 0.75-4-10-500</t>
-  </si>
-  <si>
-    <t>0.5-14-1-1 to 0.5-15-10-500</t>
-  </si>
-  <si>
-    <t>0.75-7-1-1 to 0.75-8-10-500</t>
-  </si>
-  <si>
-    <t>0.75-9-1-1 to 0.75-10-10-500</t>
-  </si>
-  <si>
-    <t>0.75-5-1-1 to 0.75-6-10-500</t>
-  </si>
-  <si>
     <t>0.75-15-1-1 to 0.75-15-10-500</t>
   </si>
   <si>
-    <t>0.25-9-1-1 to 0.25-9-10-500</t>
-  </si>
-  <si>
-    <t>0.25-7-1-1 to 0.25-8-10-500</t>
-  </si>
-  <si>
-    <t>0.75-12-1-1 to 0.75-12-10-500</t>
-  </si>
-  <si>
-    <t>0.75-11-1-1 to 0.75-11-10-500</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>0-7-1-1 to 0-8-10-500</t>
-  </si>
-  <si>
     <t>0-3-1-1 to 0-4-10-500</t>
   </si>
   <si>
+    <t>0-9-1-1 to 0-9-10-500</t>
+  </si>
+  <si>
     <t>0-10-1-1 to 0-11-10-500</t>
   </si>
   <si>
-    <t>0-9-1-1 to 0-9-10-500</t>
-  </si>
-  <si>
     <t>0-12-1-1 to 0-13-10-500</t>
   </si>
   <si>
     <t>0-14-1-1 to 0-15-10-500</t>
   </si>
   <si>
+    <t>0.25-3-1-1 to 0.25-5-10-500</t>
+  </si>
+  <si>
+    <t>0.25-6-1-1 to 0.25-8-10-500</t>
+  </si>
+  <si>
+    <t>0.25-10-1-1 to 0.25-10-10-500</t>
+  </si>
+  <si>
+    <t>0.25-11-1-1 to 0.25-12-10-500</t>
+  </si>
+  <si>
     <t>0.25-13-1-1 to 0.25-15-10-500</t>
   </si>
   <si>
-    <t>0.25-3-1-1 to 0.25-5-10-500</t>
-  </si>
-  <si>
-    <t>0.25-6-1-1 to 0.25-8-10-500</t>
-  </si>
-  <si>
-    <t>0.25-10-1-1 to 0.25-10-10-500</t>
-  </si>
-  <si>
-    <t>0.25-11-1-1 to 0.25-12-10-500</t>
+    <t>0.75-7-1-1 to 0.75-7-10-500</t>
   </si>
   <si>
     <t>0.75-8-1-1 to 0.75-8-10-500</t>
   </si>
   <si>
-    <t>0.75-7-1-1 to 0.75-7-10-500</t>
-  </si>
-  <si>
     <t>0.75-9-1-1 to 0.75-9-10-500</t>
   </si>
   <si>
@@ -276,6 +277,54 @@
   </si>
   <si>
     <t>0.75-13-1-1 to 0.75-14-10-500</t>
+  </si>
+  <si>
+    <t>Col F +  Col G + Col H</t>
+  </si>
+  <si>
+    <t>0-14-1-1 to 0-14-10-500</t>
+  </si>
+  <si>
+    <t>0.25-6-1-1 to 0.25-7-10-500</t>
+  </si>
+  <si>
+    <t>0.25-8-1-1 to 0.25-8-10-500</t>
+  </si>
+  <si>
+    <t>0.25-13-1-1 to 0.25-13-10-500</t>
+  </si>
+  <si>
+    <t>All Correct, Over, and Underspecified Models</t>
+  </si>
+  <si>
+    <t>0-13-1-1 to 0-13-10-500</t>
+  </si>
+  <si>
+    <t>0-10-1-1 to 0-10-10-500</t>
+  </si>
+  <si>
+    <t>0.25-3-1-1 to 0.25-3-10-500</t>
+  </si>
+  <si>
+    <t>0.25-4-1-1 to 0.25-4-10-500</t>
+  </si>
+  <si>
+    <t>0.25-12-1-1 to 0.25-12-10-500</t>
+  </si>
+  <si>
+    <t>0.25-11-1-1 to 0.25-11-10-500</t>
+  </si>
+  <si>
+    <t>0.5-6-1-1 to 0.5-6-10-500</t>
+  </si>
+  <si>
+    <t>0.75-5-1-1 to 0.75-5-10-500</t>
+  </si>
+  <si>
+    <t>0.75-6-1-1 to 0.75-6-10-500</t>
+  </si>
+  <si>
+    <t>0.5-5-1-1 to 0.5-5-10-500</t>
   </si>
 </sst>
 </file>
@@ -287,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,16 +372,294 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -435,12 +762,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,7 +978,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,10 +988,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,6 +1052,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,51 +1379,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -885,13 +1455,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5000</v>
@@ -923,13 +1493,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -961,13 +1531,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -999,13 +1569,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -1037,13 +1607,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -1075,13 +1645,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>5000</v>
@@ -1113,13 +1683,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -1151,13 +1721,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>5000</v>
@@ -1189,13 +1759,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -1227,13 +1797,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -1265,13 +1835,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1303,13 +1873,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1341,13 +1911,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -1379,13 +1949,13 @@
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
         <v>5000</v>
@@ -1417,13 +1987,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -1455,13 +2025,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -1493,13 +2063,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>5000</v>
@@ -1531,13 +2101,13 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>5000</v>
@@ -1569,13 +2139,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -1607,13 +2177,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>10000</v>
@@ -1645,13 +2215,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>5000</v>
@@ -1683,13 +2253,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>5000</v>
@@ -1721,13 +2291,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>5000</v>
@@ -1759,13 +2329,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -1797,13 +2367,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>10000</v>
@@ -1835,13 +2405,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>10000</v>
@@ -1873,13 +2443,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>10000</v>
@@ -1911,13 +2481,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>10000</v>
@@ -1949,13 +2519,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>10000</v>
@@ -1987,13 +2557,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>10000</v>
@@ -2025,13 +2595,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>5000</v>
@@ -2063,13 +2633,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>5000</v>
@@ -2101,13 +2671,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>5000</v>
@@ -2139,13 +2709,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>5000</v>
@@ -2177,13 +2747,13 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>5000</v>
@@ -2260,9 +2830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626C37C-800D-4875-BB52-E3A2D1EEEF19}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,194 +2850,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C2">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1425</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>8575</v>
       </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1425</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="16">
+        <v>17</v>
+      </c>
+      <c r="B3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C3">
         <v>0.88600000000000001</v>
       </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>5312</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <v>4688</v>
       </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5312</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="16">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C4">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>8122</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4">
         <v>1878</v>
       </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>8122</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="16">
+        <v>65</v>
+      </c>
+      <c r="B5" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C5">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4611</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5">
         <v>389</v>
       </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>4611</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="16">
+        <v>66</v>
+      </c>
+      <c r="B6" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C6">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9714</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>286</v>
       </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>9714</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2475,31 +3045,31 @@
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C7">
         <v>0.71799999999999997</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>9935</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7">
         <v>65</v>
       </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>9935</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2507,607 +3077,607 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C8">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>9989</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>9989</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="18">
         <v>15000</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="19">
         <v>0.85499999999999998</v>
       </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
         <v>6971</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="19">
         <v>8029</v>
       </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
         <v>6971</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="22">
+        <v>70</v>
+      </c>
+      <c r="B10" s="21">
         <v>15000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>0.70499999999999996</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>13787</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>1213</v>
       </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>13787</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="24">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="16">
+        <v>35</v>
+      </c>
+      <c r="B11" s="23">
+        <v>5000</v>
+      </c>
+      <c r="C11">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>4956</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>44</v>
       </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>4956</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="24">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="16">
+        <v>71</v>
+      </c>
+      <c r="B12" s="23">
+        <v>5000</v>
+      </c>
+      <c r="C12">
         <v>0.61399999999999999</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4980</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>4980</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="24">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="16">
+        <v>72</v>
+      </c>
+      <c r="B13" s="23">
+        <v>10000</v>
+      </c>
+      <c r="C13">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>9996</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>9996</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="22">
+        <v>73</v>
+      </c>
+      <c r="B14" s="21">
         <v>15000</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>14996</v>
       </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>15000</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="A15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C15" s="19">
         <v>0.749</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="19">
         <v>0.998</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="19">
         <v>5467</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="19">
         <v>3951</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="19">
         <v>168</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="19">
         <v>5881</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C16" s="16">
+        <v>43</v>
+      </c>
+      <c r="B16" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C16">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16">
         <v>0.997</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16">
         <v>8534</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16">
         <v>629</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16">
         <v>45</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16">
         <v>9326</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="16">
+        <v>44</v>
+      </c>
+      <c r="B17" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C17">
         <v>0.52</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17">
         <v>0.996</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17">
         <v>4466</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17">
         <v>4973</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C18" s="16">
+        <v>45</v>
+      </c>
+      <c r="B18" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C18">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18">
         <v>0.996</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18">
         <v>4471</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18">
         <v>4989</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C19" s="16">
+        <v>46</v>
+      </c>
+      <c r="B19" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C19">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19">
         <v>0.996</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19">
         <v>4419</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>4998</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C20" s="16">
+        <v>47</v>
+      </c>
+      <c r="B20" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C20">
         <v>0.436</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20">
         <v>0.995</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20">
         <v>8841</v>
       </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J20" s="23">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="22">
         <v>1159</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C21" s="16">
+        <v>49</v>
+      </c>
+      <c r="B21" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21">
         <v>0.995</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21">
         <v>8785</v>
       </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J21" s="23">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="22">
         <v>1215</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C22" s="16">
+        <v>50</v>
+      </c>
+      <c r="B22" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C22">
         <v>0.39200000000000002</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22">
         <v>0.995</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22">
         <v>8781</v>
       </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="23">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="22">
         <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="19">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="19">
         <v>0.98099999999999998</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <v>4077</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="19">
         <v>727</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="19">
         <v>549</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="19">
         <v>8724</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="20">
         <v>5196</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C24" s="16">
+        <v>53</v>
+      </c>
+      <c r="B24" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C24">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24">
         <v>2.3E-2</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24">
         <v>3945</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24">
         <v>33</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24">
         <v>9939</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>6027</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C25" s="16">
+        <v>74</v>
+      </c>
+      <c r="B25" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C25">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25">
         <v>2.4E-2</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25">
         <v>1945</v>
       </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>4999</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>3055</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="16">
+        <v>75</v>
+      </c>
+      <c r="B26" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C26">
         <v>0.25900000000000001</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26">
         <v>2.4E-2</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26">
         <v>1907</v>
       </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J26" s="23">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="22">
         <v>3093</v>
       </c>
     </row>
@@ -3115,31 +3685,31 @@
       <c r="A27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C27">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27">
         <v>2.4E-2</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27">
         <v>1912</v>
       </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J27" s="23">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>5000</v>
+      </c>
+      <c r="J27" s="22">
         <v>3088</v>
       </c>
     </row>
@@ -3147,95 +3717,95 @@
       <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C28">
         <v>0.216</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28">
         <v>2.4E-2</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28">
         <v>2018</v>
       </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J28" s="23">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>5000</v>
+      </c>
+      <c r="J28" s="22">
         <v>2982</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C29" s="16">
+        <v>58</v>
+      </c>
+      <c r="B29" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C29">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29">
         <v>2.3E-2</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29">
         <v>2068</v>
       </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J29" s="23">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="22">
         <v>2932</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C30" s="16">
+        <v>59</v>
+      </c>
+      <c r="B30" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C30">
         <v>0.187</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30">
         <v>2.3E-2</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30">
         <v>2197</v>
       </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="23">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="22">
         <v>2803</v>
       </c>
     </row>
@@ -3243,63 +3813,63 @@
       <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="B31" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C31">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31">
         <v>0.97899999999999998</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31">
         <v>4744</v>
       </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J31" s="23">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="22">
         <v>5256</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C32" s="16">
+        <v>63</v>
+      </c>
+      <c r="B32" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C32">
         <v>0.153</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32">
         <v>0.98</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32">
         <v>0.02</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32">
         <v>2458</v>
       </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J32" s="23">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="22">
         <v>2542</v>
       </c>
     </row>
@@ -3348,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232B5EE-21FD-4318-98F5-1F0F02FE7624}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:J22"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,462 +3934,1354 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>728</v>
+      </c>
+      <c r="G2">
+        <v>9272</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>F2+G2+H2</f>
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>728</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4156</v>
+      </c>
+      <c r="G3">
+        <v>5844</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="0">F3+G3+H3</f>
+        <v>10000</v>
+      </c>
+      <c r="J3">
+        <v>4156</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>7493</v>
+      </c>
+      <c r="G4">
+        <v>2507</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>7493</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>0.81</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4454</v>
+      </c>
+      <c r="G5">
+        <v>546</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>4454</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
       <c r="B6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9620</v>
+      </c>
+      <c r="G6">
+        <v>380</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10000</v>
+      </c>
+      <c r="J6">
+        <v>9620</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9915</v>
+      </c>
+      <c r="G7">
+        <v>85</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10000</v>
+      </c>
+      <c r="J7">
+        <v>9915</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>0.71</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4986</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>4986</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="C9">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4993</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>4993</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2610</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7390</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2610</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3027</v>
+      </c>
+      <c r="G11">
+        <v>1973</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>3027</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8549</v>
+      </c>
+      <c r="G12">
+        <v>1451</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+      <c r="J12">
+        <v>8549</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4812</v>
+      </c>
+      <c r="G13">
+        <v>188</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>4812</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4930</v>
+      </c>
+      <c r="G14">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5000</v>
+      </c>
+      <c r="J14">
+        <v>4930</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B10">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4967</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="J15">
+        <v>4967</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>0.61</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9994</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10000</v>
+      </c>
+      <c r="J16">
+        <v>9994</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4998</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4998</v>
+      </c>
+      <c r="J17">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4998</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4999</v>
+      </c>
+      <c r="J18">
+        <v>4999</v>
+      </c>
+      <c r="K18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4998</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4998</v>
+      </c>
+      <c r="J19">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5330</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4647</v>
+      </c>
+      <c r="H20" s="19">
+        <v>13</v>
+      </c>
+      <c r="I20" s="19">
+        <v>9990</v>
+      </c>
+      <c r="J20" s="19">
+        <v>5340</v>
+      </c>
+      <c r="K20" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9075</v>
+      </c>
+      <c r="G21">
+        <v>879</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>9959</v>
+      </c>
+      <c r="J21">
+        <v>9116</v>
+      </c>
+      <c r="K21" s="22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4923</v>
+      </c>
+      <c r="G22">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>4972</v>
+      </c>
+      <c r="J22">
+        <v>4951</v>
+      </c>
+      <c r="K22" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4932</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>SUM(F23,G23,H23)</f>
+        <v>4953</v>
+      </c>
+      <c r="J23">
+        <v>4979</v>
+      </c>
+      <c r="K23" s="22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>0.502</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4937</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I27" si="1">SUM(F24,G24,H24)</f>
+        <v>4941</v>
+      </c>
+      <c r="J24">
+        <v>4996</v>
+      </c>
+      <c r="K24" s="22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.999</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>9870</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>9872</v>
+      </c>
+      <c r="J25">
+        <v>9998</v>
+      </c>
+      <c r="K25" s="22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.995</v>
+      </c>
+      <c r="E26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>8785</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>8785</v>
+      </c>
+      <c r="J26">
+        <v>10000</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.999</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>9798</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>9798</v>
+      </c>
+      <c r="J27">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="22">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.996</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F28" s="19">
+        <v>7450</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1581</v>
+      </c>
+      <c r="H28" s="19">
+        <v>230</v>
+      </c>
+      <c r="I28" s="19">
+        <v>9261</v>
+      </c>
+      <c r="J28" s="19">
+        <v>8189</v>
+      </c>
+      <c r="K28" s="20">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.995</v>
+      </c>
+      <c r="E29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F29">
+        <v>8619</v>
+      </c>
+      <c r="G29">
+        <v>107</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>8743</v>
+      </c>
+      <c r="J29">
+        <v>9876</v>
+      </c>
+      <c r="K29" s="22">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D30">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F30">
+        <v>4115</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4120</v>
+      </c>
+      <c r="J30">
+        <v>4995</v>
+      </c>
+      <c r="K30" s="22">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>5000</v>
+      </c>
+      <c r="C31">
+        <v>0.378</v>
+      </c>
+      <c r="D31">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F31">
+        <v>3970</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3970</v>
+      </c>
+      <c r="J31">
+        <v>5000</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F32">
+        <v>3884</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>3884</v>
+      </c>
+      <c r="J32">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="22">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>5000</v>
+      </c>
+      <c r="C33">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.99</v>
+      </c>
+      <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="F33">
+        <v>3804</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3804</v>
+      </c>
+      <c r="J33">
+        <v>5000</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>5000</v>
-      </c>
-      <c r="C18">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4932</v>
-      </c>
-      <c r="G18">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4979</v>
-      </c>
-      <c r="J18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>5000</v>
-      </c>
-      <c r="C19">
-        <v>0.502</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>4937</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4996</v>
-      </c>
-      <c r="J19">
+      <c r="B34">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.99</v>
+      </c>
+      <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="F34">
+        <v>3737</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>3737</v>
+      </c>
+      <c r="J34">
+        <v>5000</v>
+      </c>
+      <c r="K34" s="22">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D20">
-        <v>0.999</v>
-      </c>
-      <c r="E20">
-        <v>1E-3</v>
-      </c>
-      <c r="F20">
-        <v>9870</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>9998</v>
-      </c>
-      <c r="J20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.995</v>
-      </c>
-      <c r="E21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F21">
-        <v>8785</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>10000</v>
-      </c>
-      <c r="J21">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.999</v>
-      </c>
-      <c r="E22">
-        <v>1E-3</v>
-      </c>
-      <c r="F22">
-        <v>9798</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>10000</v>
-      </c>
-      <c r="J22">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F35">
+        <v>3616</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>3616</v>
+      </c>
+      <c r="J35">
+        <v>5000</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B28">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
-        <f>SUM(B2:B31)</f>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>7323</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>7323</v>
+      </c>
+      <c r="J36">
+        <v>10000</v>
+      </c>
+      <c r="K36" s="22">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>0.249</v>
+      </c>
+      <c r="D37">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F37">
+        <v>3630</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>3630</v>
+      </c>
+      <c r="J37">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="24">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
+        <f>SUM(B2:B37)</f>
         <v>260000</v>
       </c>
-      <c r="C32" s="7">
-        <f>AVERAGE(C2:C31)</f>
-        <v>0.46879999999999999</v>
-      </c>
-      <c r="D32" s="7">
-        <f>AVERAGE(D2:D31)</f>
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="E32" s="7">
-        <f>AVERAGE(E2:E31)</f>
-        <v>1.4E-3</v>
-      </c>
-      <c r="F32" s="6">
-        <f>SUM(F2:F31)</f>
-        <v>38322</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32:J32" si="0">SUM(G2:G31)</f>
-        <v>27</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="0"/>
-        <v>39973</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>1651</v>
+      <c r="C38" s="11">
+        <f>AVERAGE(C2:C37)</f>
+        <v>0.5925555555555555</v>
+      </c>
+      <c r="D38" s="11">
+        <f>AVERAGE(D2:D37)</f>
+        <v>0.99736111111111092</v>
+      </c>
+      <c r="E38" s="11">
+        <f>AVERAGE(E2:E37)</f>
+        <v>2.638888888888889E-3</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" ref="F38:K38" si="2">SUM(F2:F37)</f>
+        <v>208026</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="2"/>
+        <v>37061</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="2"/>
+        <v>245353</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="2"/>
+        <v>222673</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="2"/>
+        <v>14913</v>
       </c>
     </row>
   </sheetData>
@@ -3828,11 +5290,1575 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27687026-1C3E-47B1-9960-E23D504D8B41}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3964</v>
+      </c>
+      <c r="H2">
+        <v>6036</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4091</v>
+      </c>
+      <c r="H3">
+        <v>5909</v>
+      </c>
+      <c r="I3">
+        <v>10000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4214</v>
+      </c>
+      <c r="H4">
+        <v>5786</v>
+      </c>
+      <c r="I4">
+        <f>SUM(F4:H4)</f>
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2216</v>
+      </c>
+      <c r="H5">
+        <v>2784</v>
+      </c>
+      <c r="I5">
+        <f>F5+G5+H5</f>
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2313</v>
+      </c>
+      <c r="H6">
+        <v>2687</v>
+      </c>
+      <c r="I6">
+        <f>F6+G6+H6</f>
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2245</v>
+      </c>
+      <c r="H7">
+        <v>2755</v>
+      </c>
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2324</v>
+      </c>
+      <c r="H8">
+        <v>2676</v>
+      </c>
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2440</v>
+      </c>
+      <c r="H9">
+        <v>2560</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2578</v>
+      </c>
+      <c r="H10">
+        <v>2422</v>
+      </c>
+      <c r="I10">
+        <v>5000</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="27">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2586</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2414</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>382</v>
+      </c>
+      <c r="H12">
+        <v>4618</v>
+      </c>
+      <c r="I12">
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>545</v>
+      </c>
+      <c r="H13">
+        <v>4455</v>
+      </c>
+      <c r="I13">
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>613</v>
+      </c>
+      <c r="H14">
+        <v>4387</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I16" si="0">F14+G14+H14</f>
+        <v>5000</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E15">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1576</v>
+      </c>
+      <c r="H15">
+        <v>8424</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.95</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>960</v>
+      </c>
+      <c r="H16">
+        <v>4040</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="23">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E17">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1053</v>
+      </c>
+      <c r="H17">
+        <v>3947</v>
+      </c>
+      <c r="I17">
+        <v>5000</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
+        <v>3947</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="23">
+        <v>5000</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="23">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1249</v>
+      </c>
+      <c r="H19">
+        <v>3751</v>
+      </c>
+      <c r="I19">
+        <v>5000</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1302</v>
+      </c>
+      <c r="H20">
+        <v>3698</v>
+      </c>
+      <c r="I20">
+        <v>5000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.94</v>
+      </c>
+      <c r="E21">
+        <v>0.06</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1401</v>
+      </c>
+      <c r="H21">
+        <v>3599</v>
+      </c>
+      <c r="I21">
+        <v>5000</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E22">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1474</v>
+      </c>
+      <c r="H22">
+        <v>3526</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="27">
+        <v>5000</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E23" s="15">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1563</v>
+      </c>
+      <c r="H23" s="15">
+        <v>3437</v>
+      </c>
+      <c r="I23" s="15">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="26">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.96</v>
+      </c>
+      <c r="E24">
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1012</v>
+      </c>
+      <c r="H24">
+        <v>8988</v>
+      </c>
+      <c r="I24">
+        <v>10000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>664</v>
+      </c>
+      <c r="H25">
+        <v>4336</v>
+      </c>
+      <c r="I25">
+        <v>5000</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.95</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>737</v>
+      </c>
+      <c r="H26">
+        <v>4263</v>
+      </c>
+      <c r="I26">
+        <v>5000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="22">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E27">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>828</v>
+      </c>
+      <c r="H27">
+        <v>4172</v>
+      </c>
+      <c r="I27">
+        <v>5000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E28">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>820</v>
+      </c>
+      <c r="H28">
+        <v>4180</v>
+      </c>
+      <c r="I28">
+        <v>5000</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>861</v>
+      </c>
+      <c r="H29">
+        <v>4139</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1753</v>
+      </c>
+      <c r="H30">
+        <v>8247</v>
+      </c>
+      <c r="I30">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E31">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1679</v>
+      </c>
+      <c r="H31">
+        <v>8321</v>
+      </c>
+      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="27">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E32" s="15">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="15">
+        <v>8200</v>
+      </c>
+      <c r="I32" s="15">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="26">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E33">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>855</v>
+      </c>
+      <c r="H33">
+        <v>9145</v>
+      </c>
+      <c r="I33">
+        <v>10000</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E34">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>432</v>
+      </c>
+      <c r="H34">
+        <v>4568</v>
+      </c>
+      <c r="I34">
+        <v>5000</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="22">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.92</v>
+      </c>
+      <c r="E35">
+        <v>0.08</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>399</v>
+      </c>
+      <c r="H35">
+        <v>4601</v>
+      </c>
+      <c r="I35">
+        <v>5000</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E36">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>355</v>
+      </c>
+      <c r="H36">
+        <v>4645</v>
+      </c>
+      <c r="I36">
+        <v>5000</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="22">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.107</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>313</v>
+      </c>
+      <c r="H37">
+        <v>4687</v>
+      </c>
+      <c r="I37">
+        <v>5000</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="22">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.879</v>
+      </c>
+      <c r="E38">
+        <v>0.121</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>256</v>
+      </c>
+      <c r="H38">
+        <v>4744</v>
+      </c>
+      <c r="I38">
+        <v>5000</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="22">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>256</v>
+      </c>
+      <c r="H39">
+        <v>4744</v>
+      </c>
+      <c r="I39">
+        <v>5000</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="22">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>217</v>
+      </c>
+      <c r="H40">
+        <v>4783</v>
+      </c>
+      <c r="I40">
+        <v>5000</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E41">
+        <v>0.161</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>209</v>
+      </c>
+      <c r="H41">
+        <v>4791</v>
+      </c>
+      <c r="I41">
+        <v>5000</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.82</v>
+      </c>
+      <c r="E42">
+        <v>0.18</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>381</v>
+      </c>
+      <c r="H42">
+        <v>9619</v>
+      </c>
+      <c r="I42">
+        <v>10000</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22">
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="28">
+        <v>5000</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>197</v>
+      </c>
+      <c r="H43">
+        <v>4803</v>
+      </c>
+      <c r="I43">
+        <v>5000</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="24">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
+        <f>SUM(B2:B43)</f>
+        <v>260000</v>
+      </c>
+      <c r="C44" s="11">
+        <f>AVERAGE(C2:C43)</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <f>AVERAGE(D2:D43)</f>
+        <v>0.92982926829268286</v>
+      </c>
+      <c r="E44" s="11">
+        <f>AVERAGE(E2:E43)</f>
+        <v>7.017073170731708E-2</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" ref="F44:K44" si="1">SUM(F2:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
+        <v>55113</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="1"/>
+        <v>199887</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="1"/>
+        <v>199887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FF32B-12B2-446F-B379-0C77DD69B6A0}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,34 +6869,63 @@
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Overall LASSO Performance Metrics.xlsx
+++ b/Overall LASSO Performance Metrics.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB2B01D-2D1E-4E2C-9592-907C7ABB074C}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8407CD82-DB38-45BA-A361-0F0DFEEA0797}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="BM1's Performance" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="BM1's Performance" sheetId="2" r:id="rId1"/>
     <sheet name="Corrections" sheetId="3" r:id="rId2"/>
     <sheet name="Lars" sheetId="5" r:id="rId3"/>
     <sheet name="glmnet" sheetId="7" r:id="rId4"/>
@@ -40,17 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
-  <si>
-    <t>Folder Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
   <si>
     <t>Dataset Range</t>
   </si>
   <si>
-    <t>Covered? (Yes/No)</t>
-  </si>
-  <si>
     <t>Number of Datasets</t>
   </si>
   <si>
@@ -78,33 +72,18 @@
     <t>Models with at least one Extra Variable</t>
   </si>
   <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>0-3-1-1 to 0-3-10-500</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>0-4-1-1 to 0-4-10-500</t>
   </si>
   <si>
-    <t>2nd 10k</t>
-  </si>
-  <si>
     <t>0-5-1-1 to 0-6-10-500</t>
   </si>
   <si>
-    <t>3rd 10k</t>
-  </si>
-  <si>
     <t>0-7-1-1 to 0-8-10-500</t>
   </si>
   <si>
-    <t>4th 10k</t>
-  </si>
-  <si>
     <t>0-9-1-1 to 0-10-10-500</t>
   </si>
   <si>
@@ -114,33 +93,21 @@
     <t>0-12-1-1 to 0-12-10-500</t>
   </si>
   <si>
-    <t>6th 10k</t>
-  </si>
-  <si>
     <t>0-13-1-1 to 0-14-10-500</t>
   </si>
   <si>
     <t>0-15-1-1 to 0-15-10-500</t>
   </si>
   <si>
-    <t>8th 10k</t>
-  </si>
-  <si>
     <t>0.25-1-1-1 to 0.25-2-10-500</t>
   </si>
   <si>
-    <t>9th 10k</t>
-  </si>
-  <si>
     <t>0.25-3-1-1 to 0.25-4-10-500</t>
   </si>
   <si>
     <t>0.25-5-1-1 to 0.25-5-10-500</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>0.25-6-1-1 to 0.25-6-10-500</t>
   </si>
   <si>
@@ -150,15 +117,9 @@
     <t>0.25-9-1-1 to 0.25-9-10-500</t>
   </si>
   <si>
-    <t>10th 10k</t>
-  </si>
-  <si>
     <t>0.25-10-1-1 to 0.25-11-10-500</t>
   </si>
   <si>
-    <t>11th 10k</t>
-  </si>
-  <si>
     <t>0.25-12-1-1 to 0.25-13-10-500</t>
   </si>
   <si>
@@ -186,33 +147,21 @@
     <t>0.5-10-1-1 to 0.5-11-10-500</t>
   </si>
   <si>
-    <t>16th 10k</t>
-  </si>
-  <si>
     <t>0.5-12-1-1 to 0.5-13-10-500</t>
   </si>
   <si>
     <t>0.5-14-1-1 to 0.5-15-10-500</t>
   </si>
   <si>
-    <t>17th 10k</t>
-  </si>
-  <si>
     <t>0.75-3-1-1 to 0.75-4-10-500</t>
   </si>
   <si>
     <t>0.75-5-1-1 to 0.75-6-10-500</t>
   </si>
   <si>
-    <t>19th 10k</t>
-  </si>
-  <si>
     <t>0.75-7-1-1 to 0.75-8-10-500</t>
   </si>
   <si>
-    <t>20th 10k</t>
-  </si>
-  <si>
     <t>0.75-9-1-1 to 0.75-10-10-500</t>
   </si>
   <si>
@@ -226,9 +175,6 @@
   </si>
   <si>
     <t>0.75-14-1-1 to 0.75-14-10-500</t>
-  </si>
-  <si>
-    <t>23rd &amp; Final 5k</t>
   </si>
   <si>
     <t>0.75-15-1-1 to 0.75-15-10-500</t>
@@ -1355,33 +1301,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7F9CF-D0E3-46C5-9EE9-A505A21AFEDB}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1408,1415 +1352,1193 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>321</v>
+      </c>
+      <c r="G2">
+        <v>4679</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>321</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1102</v>
+      </c>
+      <c r="G3">
+        <v>3898</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1102</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5312</v>
+      </c>
+      <c r="G4">
+        <v>4688</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5312</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8122</v>
+      </c>
+      <c r="G5">
+        <v>1878</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>8122</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>321</v>
-      </c>
-      <c r="I2">
-        <v>4679</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>321</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9423</v>
+      </c>
+      <c r="G6">
+        <v>577</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>9423</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1102</v>
-      </c>
-      <c r="I3">
-        <v>3898</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1102</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>0.746</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4902</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>4902</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4953</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4953</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5312</v>
-      </c>
-      <c r="I4">
-        <v>4688</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>5312</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9974</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9974</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>0.68</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4997</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4997</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8122</v>
-      </c>
-      <c r="I5">
-        <v>1878</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>8122</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3487</v>
+      </c>
+      <c r="G11">
+        <v>6513</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3487</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>0.77</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7752</v>
+      </c>
+      <c r="G12">
+        <v>2248</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>7752</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9423</v>
-      </c>
-      <c r="I6">
-        <v>577</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>9423</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3484</v>
+      </c>
+      <c r="G13">
+        <v>1516</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3484</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>0.746</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4902</v>
-      </c>
-      <c r="I7">
-        <v>98</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>4902</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4268</v>
+      </c>
+      <c r="G14">
+        <v>732</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>4268</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4953</v>
-      </c>
-      <c r="I8">
-        <v>47</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>4953</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9519</v>
+      </c>
+      <c r="G15">
+        <v>481</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>9519</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4956</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4956</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>9974</v>
-      </c>
-      <c r="I9">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9979</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>9979</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>9974</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>5000</v>
-      </c>
-      <c r="E10">
-        <v>0.68</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4997</v>
-      </c>
-      <c r="I10">
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>9996</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>4997</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>9997</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4999</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5000</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>3487</v>
-      </c>
-      <c r="I11">
-        <v>6513</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>3487</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3484</v>
+      </c>
+      <c r="G20">
+        <v>1516</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3484</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>0.749</v>
+      </c>
+      <c r="D21">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E21">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>5467</v>
+      </c>
+      <c r="G21">
+        <v>3951</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>5881</v>
+      </c>
+      <c r="J21">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>10000</v>
-      </c>
-      <c r="E12">
-        <v>0.77</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>7752</v>
-      </c>
-      <c r="I12">
-        <v>2248</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>7752</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>8534</v>
+      </c>
+      <c r="G22">
+        <v>629</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>9326</v>
+      </c>
+      <c r="J22">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>0.52</v>
+      </c>
+      <c r="D23">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>4466</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4973</v>
+      </c>
+      <c r="J23">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>3484</v>
-      </c>
-      <c r="I13">
-        <v>1516</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>3484</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>4471</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>4989</v>
+      </c>
+      <c r="J24">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>5000</v>
-      </c>
-      <c r="E14">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4268</v>
-      </c>
-      <c r="I14">
-        <v>732</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>4268</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>4419</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4998</v>
+      </c>
+      <c r="J25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>10000</v>
-      </c>
-      <c r="E15">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>9519</v>
-      </c>
-      <c r="I15">
-        <v>481</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>9519</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>0.436</v>
+      </c>
+      <c r="D26">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>8841</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>10000</v>
+      </c>
+      <c r="J26">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4956</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.99</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
+        <v>8785</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>10000</v>
+      </c>
+      <c r="J27">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F28">
+        <v>8781</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10000</v>
+      </c>
+      <c r="J28">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F29">
+        <v>4077</v>
+      </c>
+      <c r="G29">
+        <v>727</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>8724</v>
+      </c>
+      <c r="J29">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.879</v>
+      </c>
+      <c r="E30">
+        <v>0.121</v>
+      </c>
+      <c r="F30">
+        <v>3945</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>9939</v>
+      </c>
+      <c r="J30">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E31">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>3852</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>9999</v>
+      </c>
+      <c r="J31">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E32">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F32">
+        <v>3930</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>10000</v>
+      </c>
+      <c r="J32">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>5000</v>
+      </c>
+      <c r="C33">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.94</v>
+      </c>
+      <c r="E33">
+        <v>0.06</v>
+      </c>
+      <c r="F33">
+        <v>2068</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>5000</v>
+      </c>
+      <c r="J33">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>0.187</v>
+      </c>
+      <c r="D34">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E34">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>2197</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>5000</v>
+      </c>
+      <c r="J34">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>0.17</v>
+      </c>
+      <c r="D35">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E35">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F35">
+        <v>2315</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>5000</v>
+      </c>
+      <c r="J35">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>4956</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>9979</v>
-      </c>
-      <c r="I17">
-        <v>21</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>9979</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>10000</v>
-      </c>
-      <c r="E18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>9996</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>9997</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>5000</v>
-      </c>
-      <c r="E19">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4999</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>5000</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>5000</v>
-      </c>
-      <c r="E20">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3484</v>
-      </c>
-      <c r="I20">
-        <v>1516</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>3484</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>10000</v>
-      </c>
-      <c r="E21">
-        <v>0.749</v>
-      </c>
-      <c r="F21">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G21">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H21">
-        <v>5467</v>
-      </c>
-      <c r="I21">
-        <v>3951</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>5881</v>
-      </c>
-      <c r="L21">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>10000</v>
-      </c>
-      <c r="E22">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="F22">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="G22">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H22">
-        <v>8534</v>
-      </c>
-      <c r="I22">
-        <v>629</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>9326</v>
-      </c>
-      <c r="L22">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>5000</v>
-      </c>
-      <c r="E23">
-        <v>0.52</v>
-      </c>
-      <c r="F23">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="G23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H23">
-        <v>4466</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>4973</v>
-      </c>
-      <c r="L23">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B36">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>0.161</v>
+      </c>
+      <c r="D36">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F36">
+        <v>2430</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>5000</v>
+      </c>
+      <c r="J36">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>5000</v>
-      </c>
-      <c r="E24">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G24">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H24">
-        <v>4471</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>4989</v>
-      </c>
-      <c r="L24">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>5000</v>
-      </c>
-      <c r="E25">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="F25">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G25">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H25">
-        <v>4419</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>4998</v>
-      </c>
-      <c r="L25">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>10000</v>
-      </c>
-      <c r="E26">
-        <v>0.436</v>
-      </c>
-      <c r="F26">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="G26">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H26">
-        <v>8841</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>10000</v>
-      </c>
-      <c r="L26">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>10000</v>
-      </c>
-      <c r="E27">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="F27">
-        <v>0.99</v>
-      </c>
-      <c r="G27">
-        <v>0.01</v>
-      </c>
-      <c r="H27">
-        <v>8785</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>10000</v>
-      </c>
-      <c r="L27">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>10000</v>
-      </c>
-      <c r="E28">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="F28">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G28">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H28">
-        <v>8781</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>10000</v>
-      </c>
-      <c r="L28">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>10000</v>
-      </c>
-      <c r="E29">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="G29">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H29">
-        <v>4077</v>
-      </c>
-      <c r="I29">
-        <v>727</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>8724</v>
-      </c>
-      <c r="L29">
-        <v>5196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>10000</v>
-      </c>
-      <c r="E30">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="F30">
-        <v>0.879</v>
-      </c>
-      <c r="G30">
-        <v>0.121</v>
-      </c>
-      <c r="H30">
-        <v>3945</v>
-      </c>
-      <c r="I30">
-        <v>28</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>9939</v>
-      </c>
-      <c r="L30">
-        <v>6027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>10000</v>
-      </c>
-      <c r="E31">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G31">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H31">
-        <v>3852</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>9999</v>
-      </c>
-      <c r="L31">
-        <v>6148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>10000</v>
-      </c>
-      <c r="E32">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="G32">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H32">
-        <v>3930</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>10000</v>
-      </c>
-      <c r="L32">
-        <v>6070</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>5000</v>
-      </c>
-      <c r="E33">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.94</v>
-      </c>
-      <c r="G33">
-        <v>0.06</v>
-      </c>
-      <c r="H33">
-        <v>2068</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>5000</v>
-      </c>
-      <c r="L33">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>5000</v>
-      </c>
-      <c r="E34">
-        <v>0.187</v>
-      </c>
-      <c r="F34">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="G34">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H34">
-        <v>2197</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>5000</v>
-      </c>
-      <c r="L34">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>5000</v>
-      </c>
-      <c r="E35">
-        <v>0.17</v>
-      </c>
-      <c r="F35">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="G35">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H35">
-        <v>2315</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>5000</v>
-      </c>
-      <c r="L35">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>5000</v>
-      </c>
-      <c r="E36">
-        <v>0.161</v>
-      </c>
-      <c r="F36">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G36">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H36">
-        <v>2430</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>5000</v>
-      </c>
-      <c r="L36">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>0.153</v>
       </c>
       <c r="D37">
-        <v>5000</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E37">
-        <v>0.153</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F37">
-        <v>0.96099999999999997</v>
+        <v>2458</v>
       </c>
       <c r="G37">
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2458</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>5000</v>
-      </c>
-      <c r="L37">
         <v>2542</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="9">
-        <f>SUM(D2:D37)</f>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
+        <f>SUM(B2:B37)</f>
         <v>270000</v>
       </c>
+      <c r="C38" s="7">
+        <f>AVERAGE(C2:C37)</f>
+        <v>0.57238888888888895</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" ref="D38:E38" si="0">AVERAGE(D2:D37)</f>
+        <v>0.97791666666666666</v>
+      </c>
       <c r="E38" s="7">
-        <f>AVERAGE(E2:E37)</f>
-        <v>0.57238888888888895</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" ref="F38:G38" si="0">AVERAGE(F2:F37)</f>
-        <v>0.97791666666666666</v>
-      </c>
-      <c r="G38" s="7">
         <f t="shared" si="0"/>
         <v>2.2083333333333337E-2</v>
       </c>
-      <c r="H38" s="6">
-        <f>SUM(H2:H37)</f>
+      <c r="F38" s="6">
+        <f>SUM(F2:F37)</f>
         <v>192066</v>
       </c>
+      <c r="G38" s="6">
+        <f t="shared" ref="G38:J38" si="1">SUM(G2:G37)</f>
+        <v>34337</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="6">
-        <f t="shared" ref="I38:L38" si="1">SUM(I2:I37)</f>
-        <v>34337</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
         <f t="shared" si="1"/>
         <v>234861</v>
       </c>
-      <c r="L38" s="8">
+      <c r="J38" s="8">
         <f t="shared" si="1"/>
         <v>43597</v>
       </c>
@@ -2832,12 +2554,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -2851,39 +2573,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B2" s="21">
         <v>10000</v>
@@ -2915,7 +2637,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="21">
         <v>10000</v>
@@ -2947,7 +2669,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="21">
         <v>10000</v>
@@ -2979,7 +2701,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B5" s="21">
         <v>5000</v>
@@ -3011,7 +2733,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B6" s="21">
         <v>10000</v>
@@ -3043,7 +2765,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B7" s="21">
         <v>10000</v>
@@ -3075,7 +2797,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B8" s="21">
         <v>10000</v>
@@ -3107,7 +2829,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18">
         <v>15000</v>
@@ -3139,7 +2861,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B10" s="21">
         <v>15000</v>
@@ -3171,7 +2893,7 @@
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B11" s="23">
         <v>5000</v>
@@ -3203,7 +2925,7 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B12" s="23">
         <v>5000</v>
@@ -3235,7 +2957,7 @@
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B13" s="23">
         <v>10000</v>
@@ -3267,7 +2989,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B14" s="21">
         <v>15000</v>
@@ -3299,7 +3021,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="18">
         <v>10000</v>
@@ -3331,7 +3053,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16" s="21">
         <v>10000</v>
@@ -3363,7 +3085,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B17" s="21">
         <v>5000</v>
@@ -3395,7 +3117,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" s="21">
         <v>5000</v>
@@ -3427,7 +3149,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B19" s="21">
         <v>5000</v>
@@ -3459,7 +3181,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B20" s="21">
         <v>10000</v>
@@ -3491,7 +3213,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B21" s="21">
         <v>10000</v>
@@ -3523,7 +3245,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B22" s="21">
         <v>10000</v>
@@ -3555,7 +3277,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B23" s="18">
         <v>10000</v>
@@ -3587,7 +3309,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B24" s="21">
         <v>10000</v>
@@ -3619,7 +3341,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B25" s="21">
         <v>5000</v>
@@ -3651,7 +3373,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B26" s="21">
         <v>5000</v>
@@ -3683,7 +3405,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B27" s="21">
         <v>5000</v>
@@ -3715,7 +3437,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B28" s="21">
         <v>5000</v>
@@ -3747,7 +3469,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B29" s="21">
         <v>5000</v>
@@ -3779,7 +3501,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B30" s="21">
         <v>5000</v>
@@ -3811,7 +3533,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B31" s="21">
         <v>10000</v>
@@ -3843,7 +3565,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B32" s="21">
         <v>5000</v>
@@ -3920,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232B5EE-21FD-4318-98F5-1F0F02FE7624}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -3941,42 +3663,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -4012,7 +3734,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -4048,7 +3770,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -4084,7 +3806,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -4119,7 +3841,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -4154,7 +3876,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -4189,7 +3911,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>5000</v>
@@ -4224,7 +3946,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>5000</v>
@@ -4259,7 +3981,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19">
         <v>10000</v>
@@ -4294,7 +4016,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>5000</v>
@@ -4329,7 +4051,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -4364,7 +4086,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>5000</v>
@@ -4399,7 +4121,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>5000</v>
@@ -4434,7 +4156,7 @@
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4">
         <v>5000</v>
@@ -4469,7 +4191,7 @@
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4">
         <v>10000</v>
@@ -4504,7 +4226,7 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>5000</v>
@@ -4539,7 +4261,7 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>5000</v>
@@ -4574,7 +4296,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>5000</v>
@@ -4609,7 +4331,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B20" s="19">
         <v>10000</v>
@@ -4644,7 +4366,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>10000</v>
@@ -4679,7 +4401,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>5000</v>
@@ -4714,7 +4436,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>5000</v>
@@ -4750,7 +4472,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>5000</v>
@@ -4786,7 +4508,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -4822,7 +4544,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>10000</v>
@@ -4858,7 +4580,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>10000</v>
@@ -4894,7 +4616,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B28" s="19">
         <v>10000</v>
@@ -4929,7 +4651,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>10000</v>
@@ -4964,7 +4686,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>5000</v>
@@ -4999,7 +4721,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>5000</v>
@@ -5034,7 +4756,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>5000</v>
@@ -5069,7 +4791,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>5000</v>
@@ -5104,7 +4826,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -5139,7 +4861,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>5000</v>
@@ -5174,7 +4896,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>10000</v>
@@ -5209,7 +4931,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>5000</v>
@@ -5293,13 +5015,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27687026-1C3E-47B1-9960-E23D504D8B41}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -5314,42 +5036,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>10000</v>
@@ -5384,7 +5106,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="21">
         <v>10000</v>
@@ -5419,7 +5141,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="21">
         <v>10000</v>
@@ -5455,7 +5177,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B5" s="21">
         <v>5000</v>
@@ -5491,7 +5213,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B6" s="21">
         <v>5000</v>
@@ -5527,7 +5249,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="21">
         <v>5000</v>
@@ -5562,7 +5284,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="21">
         <v>5000</v>
@@ -5597,7 +5319,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B9" s="21">
         <v>5000</v>
@@ -5632,7 +5354,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B10" s="21">
         <v>5000</v>
@@ -5667,7 +5389,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="27">
         <v>5000</v>
@@ -5702,7 +5424,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B12" s="21">
         <v>5000</v>
@@ -5737,7 +5459,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B13" s="21">
         <v>5000</v>
@@ -5772,7 +5494,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B14" s="21">
         <v>5000</v>
@@ -5808,7 +5530,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B15" s="21">
         <v>10000</v>
@@ -5844,7 +5566,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B16" s="21">
         <v>5000</v>
@@ -5880,7 +5602,7 @@
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B17" s="23">
         <v>5000</v>
@@ -5916,24 +5638,42 @@
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B18" s="23">
         <v>5000</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18" s="22"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1116</v>
+      </c>
+      <c r="H18">
+        <v>3884</v>
+      </c>
+      <c r="I18">
+        <v>5000</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3884</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B19" s="23">
         <v>5000</v>
@@ -5968,7 +5708,7 @@
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B20" s="21">
         <v>5000</v>
@@ -6003,7 +5743,7 @@
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B21" s="21">
         <v>5000</v>
@@ -6038,7 +5778,7 @@
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B22" s="21">
         <v>5000</v>
@@ -6073,7 +5813,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B23" s="27">
         <v>5000</v>
@@ -6108,7 +5848,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B24" s="21">
         <v>10000</v>
@@ -6143,7 +5883,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B25" s="21">
         <v>5000</v>
@@ -6178,7 +5918,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B26" s="21">
         <v>5000</v>
@@ -6213,7 +5953,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B27" s="21">
         <v>5000</v>
@@ -6248,7 +5988,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B28" s="21">
         <v>5000</v>
@@ -6283,7 +6023,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B29" s="21">
         <v>5000</v>
@@ -6318,7 +6058,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B30" s="21">
         <v>10000</v>
@@ -6353,7 +6093,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B31" s="21">
         <v>10000</v>
@@ -6388,7 +6128,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B32" s="27">
         <v>10000</v>
@@ -6423,7 +6163,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B33" s="21">
         <v>10000</v>
@@ -6458,7 +6198,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B34" s="21">
         <v>5000</v>
@@ -6493,7 +6233,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B35" s="21">
         <v>5000</v>
@@ -6528,7 +6268,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B36" s="21">
         <v>5000</v>
@@ -6563,7 +6303,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B37" s="21">
         <v>5000</v>
@@ -6598,7 +6338,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B38" s="21">
         <v>5000</v>
@@ -6633,7 +6373,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B39" s="21">
         <v>5000</v>
@@ -6668,7 +6408,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B40" s="21">
         <v>5000</v>
@@ -6703,7 +6443,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B41" s="21">
         <v>5000</v>
@@ -6738,7 +6478,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B42" s="21">
         <v>10000</v>
@@ -6773,7 +6513,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B43" s="28">
         <v>5000</v>
@@ -6817,11 +6557,11 @@
       </c>
       <c r="D44" s="11">
         <f>AVERAGE(D2:D43)</f>
-        <v>0.92982926829268286</v>
+        <v>0.93021428571428566</v>
       </c>
       <c r="E44" s="11">
         <f>AVERAGE(E2:E43)</f>
-        <v>7.017073170731708E-2</v>
+        <v>6.9785714285714298E-2</v>
       </c>
       <c r="F44" s="12">
         <f t="shared" ref="F44:K44" si="1">SUM(F2:F43)</f>
@@ -6829,15 +6569,15 @@
       </c>
       <c r="G44" s="12">
         <f t="shared" si="1"/>
-        <v>55113</v>
+        <v>56229</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="1"/>
-        <v>199887</v>
+        <v>203771</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="1"/>
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="1"/>
@@ -6845,7 +6585,7 @@
       </c>
       <c r="K44" s="14">
         <f t="shared" si="1"/>
-        <v>199887</v>
+        <v>203771</v>
       </c>
     </row>
   </sheetData>
@@ -6875,57 +6615,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
